--- a/Vika/R_calc_Touchtred_D/Data/TouchTrEd_D_2023.xlsx
+++ b/Vika/R_calc_Touchtred_D/Data/TouchTrEd_D_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперимент TouchTrEd-D" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="21">
   <si>
     <t>Date_Start</t>
   </si>
@@ -40,10 +40,10 @@
     <t>Supposed_Morph_B</t>
   </si>
   <si>
-    <t>Morph</t>
+    <t>Morph_A</t>
   </si>
   <si>
-    <t>Mate_Morph</t>
+    <t>Morph_B</t>
   </si>
   <si>
     <t>Size</t>
@@ -70,7 +70,13 @@
     <t>PE</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
   <si>
     <t>present</t>
@@ -1238,7 +1244,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1247,7 +1253,7 @@
     <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="7.11111111111111" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="10" width="12.7777777777778" customWidth="1"/>
     <col min="14" max="14" width="12.4444444444444" customWidth="1"/>
     <col min="15" max="15" width="18.2222222222222" customWidth="1"/>
@@ -1329,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1370,13 +1376,13 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1417,13 +1423,13 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1470,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1511,13 +1517,13 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1558,13 +1564,13 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1611,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1655,10 +1661,10 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
         <v>16</v>
@@ -1705,7 +1711,7 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10">
         <v>33</v>
@@ -1749,10 +1755,10 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1793,13 +1799,13 @@
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1840,13 +1846,13 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1887,13 +1893,13 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K14">
         <v>18</v>
@@ -1934,13 +1940,13 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K15">
         <v>16</v>
@@ -1987,7 +1993,7 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K16">
         <v>11</v>
@@ -2031,10 +2037,10 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K17">
         <v>24</v>
@@ -2049,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2081,7 +2087,7 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2121,14 +2127,10 @@
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
+      <c r="H19"/>
+      <c r="I19"/>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2143,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2168,14 +2170,10 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
+      <c r="H20"/>
+      <c r="I20"/>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2215,14 +2213,10 @@
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
+      <c r="H21"/>
+      <c r="I21"/>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K21">
         <v>22</v>
@@ -2262,14 +2256,10 @@
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
+      <c r="H22"/>
+      <c r="I22"/>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -2309,14 +2299,10 @@
       <c r="G23" t="s">
         <v>16</v>
       </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
+      <c r="H23"/>
+      <c r="I23"/>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K23">
         <v>13</v>
@@ -2356,14 +2342,10 @@
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
+      <c r="H24"/>
+      <c r="I24"/>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -2403,14 +2385,10 @@
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
+      <c r="H25"/>
+      <c r="I25"/>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K25">
         <v>16</v>
@@ -2445,34 +2423,30 @@
         <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2497,14 +2471,10 @@
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
+      <c r="H27"/>
+      <c r="I27"/>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2544,14 +2514,10 @@
       <c r="G28" t="s">
         <v>16</v>
       </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" t="s">
-        <v>17</v>
-      </c>
+      <c r="H28"/>
+      <c r="I28"/>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K28">
         <v>13</v>
@@ -2566,7 +2532,7 @@
         <v>10</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2591,14 +2557,10 @@
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>17</v>
-      </c>
+      <c r="H29"/>
+      <c r="I29"/>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -2638,14 +2600,10 @@
       <c r="G30" t="s">
         <v>16</v>
       </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" t="s">
-        <v>17</v>
-      </c>
+      <c r="H30"/>
+      <c r="I30"/>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2685,14 +2643,10 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" t="s">
-        <v>17</v>
-      </c>
+      <c r="H31"/>
+      <c r="I31"/>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2732,14 +2686,10 @@
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
+      <c r="H32"/>
+      <c r="I32"/>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -2779,14 +2729,10 @@
       <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
+      <c r="H33"/>
+      <c r="I33"/>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K33">
         <v>24</v>
@@ -2826,14 +2772,10 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" t="s">
-        <v>17</v>
-      </c>
+      <c r="H34"/>
+      <c r="I34"/>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -2873,14 +2815,10 @@
       <c r="G35" t="s">
         <v>16</v>
       </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" t="s">
-        <v>17</v>
-      </c>
+      <c r="H35"/>
+      <c r="I35"/>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K35">
         <v>29</v>
@@ -2920,14 +2858,10 @@
       <c r="G36" t="s">
         <v>16</v>
       </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>17</v>
-      </c>
+      <c r="H36"/>
+      <c r="I36"/>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K36">
         <v>30</v>
@@ -2967,14 +2901,10 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
+      <c r="H37"/>
+      <c r="I37"/>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K37">
         <v>12</v>
@@ -3014,14 +2944,10 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="s">
-        <v>17</v>
-      </c>
+      <c r="H38"/>
+      <c r="I38"/>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3061,14 +2987,10 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" t="s">
-        <v>17</v>
-      </c>
+      <c r="H39"/>
+      <c r="I39"/>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K39">
         <v>15</v>
@@ -3108,14 +3030,10 @@
       <c r="G40" t="s">
         <v>16</v>
       </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" t="s">
-        <v>17</v>
-      </c>
+      <c r="H40"/>
+      <c r="I40"/>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3155,14 +3073,10 @@
       <c r="G41" t="s">
         <v>16</v>
       </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" t="s">
-        <v>17</v>
-      </c>
+      <c r="H41"/>
+      <c r="I41"/>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K41">
         <v>29</v>
@@ -3202,14 +3116,10 @@
       <c r="G42" t="s">
         <v>16</v>
       </c>
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" t="s">
-        <v>17</v>
-      </c>
+      <c r="H42"/>
+      <c r="I42"/>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -3224,7 +3134,7 @@
         <v>10</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3249,14 +3159,10 @@
       <c r="G43" t="s">
         <v>16</v>
       </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" t="s">
-        <v>17</v>
-      </c>
+      <c r="H43"/>
+      <c r="I43"/>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -3296,14 +3202,10 @@
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" t="s">
-        <v>17</v>
-      </c>
+      <c r="H44"/>
+      <c r="I44"/>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -3343,14 +3245,10 @@
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" t="s">
-        <v>17</v>
-      </c>
+      <c r="H45"/>
+      <c r="I45"/>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3390,14 +3288,10 @@
       <c r="G46" t="s">
         <v>16</v>
       </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" t="s">
-        <v>17</v>
-      </c>
+      <c r="H46"/>
+      <c r="I46"/>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -3437,14 +3331,10 @@
       <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="H47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" t="s">
-        <v>17</v>
-      </c>
+      <c r="H47"/>
+      <c r="I47"/>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K47">
         <v>28</v>
@@ -3484,14 +3374,10 @@
       <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="H48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" t="s">
-        <v>17</v>
-      </c>
+      <c r="H48"/>
+      <c r="I48"/>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -3531,14 +3417,10 @@
       <c r="G49" t="s">
         <v>16</v>
       </c>
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" t="s">
-        <v>17</v>
-      </c>
+      <c r="H49"/>
+      <c r="I49"/>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3573,34 +3455,30 @@
         <v>178</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50"/>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3625,14 +3503,10 @@
       <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="H51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" t="s">
-        <v>17</v>
-      </c>
+      <c r="H51"/>
+      <c r="I51"/>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3647,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3672,14 +3546,10 @@
       <c r="G52" t="s">
         <v>16</v>
       </c>
-      <c r="H52" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" t="s">
-        <v>17</v>
-      </c>
+      <c r="H52"/>
+      <c r="I52"/>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K52">
         <v>32</v>
@@ -3719,14 +3589,10 @@
       <c r="G53" t="s">
         <v>16</v>
       </c>
-      <c r="H53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" t="s">
-        <v>17</v>
-      </c>
+      <c r="H53"/>
+      <c r="I53"/>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3766,14 +3632,10 @@
       <c r="G54" t="s">
         <v>16</v>
       </c>
-      <c r="H54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" t="s">
-        <v>17</v>
-      </c>
+      <c r="H54"/>
+      <c r="I54"/>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -3813,14 +3675,10 @@
       <c r="G55" t="s">
         <v>16</v>
       </c>
-      <c r="H55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" t="s">
-        <v>17</v>
-      </c>
+      <c r="H55"/>
+      <c r="I55"/>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -3860,14 +3718,10 @@
       <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="H56" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" t="s">
-        <v>17</v>
-      </c>
+      <c r="H56"/>
+      <c r="I56"/>
       <c r="J56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -3907,14 +3761,10 @@
       <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="H57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" t="s">
-        <v>17</v>
-      </c>
+      <c r="H57"/>
+      <c r="I57"/>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -3954,14 +3804,10 @@
       <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="H58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" t="s">
-        <v>17</v>
-      </c>
+      <c r="H58"/>
+      <c r="I58"/>
       <c r="J58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K58">
         <v>5</v>
@@ -4001,14 +3847,10 @@
       <c r="G59" t="s">
         <v>16</v>
       </c>
-      <c r="H59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" t="s">
-        <v>17</v>
-      </c>
+      <c r="H59"/>
+      <c r="I59"/>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -4048,14 +3890,10 @@
       <c r="G60" t="s">
         <v>16</v>
       </c>
-      <c r="H60" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" t="s">
-        <v>17</v>
-      </c>
+      <c r="H60"/>
+      <c r="I60"/>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K60">
         <v>7</v>
@@ -4095,14 +3933,10 @@
       <c r="G61" t="s">
         <v>15</v>
       </c>
-      <c r="H61" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" t="s">
-        <v>17</v>
-      </c>
+      <c r="H61"/>
+      <c r="I61"/>
       <c r="J61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -4142,14 +3976,10 @@
       <c r="G62" t="s">
         <v>16</v>
       </c>
-      <c r="H62" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" t="s">
-        <v>17</v>
-      </c>
+      <c r="H62"/>
+      <c r="I62"/>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K62">
         <v>14</v>
@@ -4184,34 +4014,30 @@
         <v>204</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63"/>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4236,14 +4062,10 @@
       <c r="G64" t="s">
         <v>15</v>
       </c>
-      <c r="H64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" t="s">
-        <v>17</v>
-      </c>
+      <c r="H64"/>
+      <c r="I64"/>
       <c r="J64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K64">
         <v>11</v>
@@ -4283,14 +4105,10 @@
       <c r="G65" t="s">
         <v>16</v>
       </c>
-      <c r="H65" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" t="s">
-        <v>17</v>
-      </c>
+      <c r="H65"/>
+      <c r="I65"/>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -4330,14 +4148,10 @@
       <c r="G66" t="s">
         <v>16</v>
       </c>
-      <c r="H66" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" t="s">
-        <v>17</v>
-      </c>
+      <c r="H66"/>
+      <c r="I66"/>
       <c r="J66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K66">
         <v>19</v>
@@ -4377,14 +4191,10 @@
       <c r="G67" t="s">
         <v>16</v>
       </c>
-      <c r="H67" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" t="s">
-        <v>17</v>
-      </c>
+      <c r="H67"/>
+      <c r="I67"/>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -4424,14 +4234,10 @@
       <c r="G68" t="s">
         <v>15</v>
       </c>
-      <c r="H68" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" t="s">
-        <v>17</v>
-      </c>
+      <c r="H68"/>
+      <c r="I68"/>
       <c r="J68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K68">
         <v>16</v>
@@ -4471,14 +4277,10 @@
       <c r="G69" t="s">
         <v>15</v>
       </c>
-      <c r="H69" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" t="s">
-        <v>17</v>
-      </c>
+      <c r="H69"/>
+      <c r="I69"/>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K69">
         <v>4</v>
@@ -4518,14 +4320,10 @@
       <c r="G70" t="s">
         <v>15</v>
       </c>
-      <c r="H70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" t="s">
-        <v>17</v>
-      </c>
+      <c r="H70"/>
+      <c r="I70"/>
       <c r="J70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4565,14 +4363,10 @@
       <c r="G71" t="s">
         <v>15</v>
       </c>
-      <c r="H71" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" t="s">
-        <v>17</v>
-      </c>
+      <c r="H71"/>
+      <c r="I71"/>
       <c r="J71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K71">
         <v>10</v>
@@ -4612,14 +4406,10 @@
       <c r="G72" t="s">
         <v>16</v>
       </c>
-      <c r="H72" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" t="s">
-        <v>17</v>
-      </c>
+      <c r="H72"/>
+      <c r="I72"/>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K72">
         <v>13</v>
@@ -4659,14 +4449,10 @@
       <c r="G73" t="s">
         <v>16</v>
       </c>
-      <c r="H73" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" t="s">
-        <v>17</v>
-      </c>
+      <c r="H73"/>
+      <c r="I73"/>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -4706,14 +4492,10 @@
       <c r="G74" t="s">
         <v>15</v>
       </c>
-      <c r="H74" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" t="s">
-        <v>17</v>
-      </c>
+      <c r="H74"/>
+      <c r="I74"/>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4753,14 +4535,10 @@
       <c r="G75" t="s">
         <v>16</v>
       </c>
-      <c r="H75" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" t="s">
-        <v>17</v>
-      </c>
+      <c r="H75"/>
+      <c r="I75"/>
       <c r="J75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K75">
         <v>8</v>
@@ -4800,14 +4578,10 @@
       <c r="G76" t="s">
         <v>16</v>
       </c>
-      <c r="H76" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" t="s">
-        <v>17</v>
-      </c>
+      <c r="H76"/>
+      <c r="I76"/>
       <c r="J76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K76">
         <v>24</v>
@@ -4847,14 +4621,10 @@
       <c r="G77" t="s">
         <v>15</v>
       </c>
-      <c r="H77" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" t="s">
-        <v>17</v>
-      </c>
+      <c r="H77"/>
+      <c r="I77"/>
       <c r="J77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -4869,7 +4639,7 @@
         <v>10</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Vika/R_calc_Touchtred_D/Data/TouchTrEd_D_2023.xlsx
+++ b/Vika/R_calc_Touchtred_D/Data/TouchTrEd_D_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144"/>
+    <workbookView windowWidth="27975" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперимент TouchTrEd-D" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="21">
   <si>
     <t>Date_Start</t>
   </si>
@@ -85,13 +85,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="176" formatCode="dd,mm,yyyy\ h:mm"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,11 +102,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,22 +140,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -150,23 +148,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,17 +170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,41 +193,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,25 +255,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,36 +303,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +393,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,37 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,35 +455,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,21 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -546,161 +513,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -708,55 +717,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -951,7 +960,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -960,7 +969,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1242,21 +1251,21 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.5555555555556"/>
-    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="16.5583333333333"/>
+    <col min="2" max="2" width="16.5583333333333" customWidth="1"/>
     <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="10" width="12.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="12.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="18.2222222222222" customWidth="1"/>
+    <col min="9" max="10" width="12.775" customWidth="1"/>
+    <col min="14" max="14" width="12.4416666666667" customWidth="1"/>
+    <col min="15" max="15" width="18.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2054,7 +2063,7 @@
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2127,8 +2136,12 @@
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
       <c r="J19" t="s">
         <v>18</v>
       </c>
@@ -2144,7 +2157,7 @@
       <c r="N19">
         <v>5</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2170,8 +2183,12 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
       <c r="J20" t="s">
         <v>18</v>
       </c>
@@ -2213,8 +2230,12 @@
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
       <c r="J21" t="s">
         <v>18</v>
       </c>
@@ -2256,8 +2277,12 @@
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
       <c r="J22" t="s">
         <v>18</v>
       </c>
@@ -2299,8 +2324,12 @@
       <c r="G23" t="s">
         <v>16</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
       <c r="J23" t="s">
         <v>18</v>
       </c>
@@ -2342,8 +2371,12 @@
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
       <c r="J24" t="s">
         <v>18</v>
       </c>
@@ -2385,8 +2418,12 @@
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
       <c r="J25" t="s">
         <v>18</v>
       </c>
@@ -2428,8 +2465,12 @@
       <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
       <c r="J26" t="s">
         <v>18</v>
       </c>
@@ -2471,8 +2512,12 @@
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
       <c r="J27" t="s">
         <v>18</v>
       </c>
@@ -2514,8 +2559,12 @@
       <c r="G28" t="s">
         <v>16</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
@@ -2531,7 +2580,7 @@
       <c r="N28">
         <v>10</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2557,8 +2606,12 @@
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H29"/>
-      <c r="I29"/>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
       <c r="J29" t="s">
         <v>18</v>
       </c>
@@ -2600,8 +2653,12 @@
       <c r="G30" t="s">
         <v>16</v>
       </c>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
       <c r="J30" t="s">
         <v>18</v>
       </c>
@@ -2643,8 +2700,12 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
       <c r="J31" t="s">
         <v>18</v>
       </c>
@@ -2686,8 +2747,12 @@
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
       <c r="J32" t="s">
         <v>18</v>
       </c>
@@ -2729,8 +2794,12 @@
       <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
       <c r="J33" t="s">
         <v>18</v>
       </c>
@@ -2772,8 +2841,12 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
       <c r="J34" t="s">
         <v>18</v>
       </c>
@@ -2815,8 +2888,12 @@
       <c r="G35" t="s">
         <v>16</v>
       </c>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
       <c r="J35" t="s">
         <v>18</v>
       </c>
@@ -2858,8 +2935,12 @@
       <c r="G36" t="s">
         <v>16</v>
       </c>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
       <c r="J36" t="s">
         <v>18</v>
       </c>
@@ -2901,8 +2982,12 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="H37"/>
-      <c r="I37"/>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
       <c r="J37" t="s">
         <v>18</v>
       </c>
@@ -2944,8 +3029,12 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38"/>
-      <c r="I38"/>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
       <c r="J38" t="s">
         <v>18</v>
       </c>
@@ -2987,8 +3076,12 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
       <c r="J39" t="s">
         <v>18</v>
       </c>
@@ -3030,8 +3123,12 @@
       <c r="G40" t="s">
         <v>16</v>
       </c>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
       <c r="J40" t="s">
         <v>18</v>
       </c>
@@ -3073,8 +3170,12 @@
       <c r="G41" t="s">
         <v>16</v>
       </c>
-      <c r="H41"/>
-      <c r="I41"/>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
       <c r="J41" t="s">
         <v>18</v>
       </c>
@@ -3116,8 +3217,12 @@
       <c r="G42" t="s">
         <v>16</v>
       </c>
-      <c r="H42"/>
-      <c r="I42"/>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
       <c r="J42" t="s">
         <v>18</v>
       </c>
@@ -3133,7 +3238,7 @@
       <c r="N42">
         <v>10</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3159,8 +3264,12 @@
       <c r="G43" t="s">
         <v>16</v>
       </c>
-      <c r="H43"/>
-      <c r="I43"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
       <c r="J43" t="s">
         <v>18</v>
       </c>
@@ -3202,8 +3311,12 @@
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44"/>
-      <c r="I44"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
       <c r="J44" t="s">
         <v>18</v>
       </c>
@@ -3245,8 +3358,12 @@
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45"/>
-      <c r="I45"/>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
       <c r="J45" t="s">
         <v>18</v>
       </c>
@@ -3288,8 +3405,12 @@
       <c r="G46" t="s">
         <v>16</v>
       </c>
-      <c r="H46"/>
-      <c r="I46"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
       <c r="J46" t="s">
         <v>18</v>
       </c>
@@ -3331,8 +3452,12 @@
       <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="H47"/>
-      <c r="I47"/>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
       <c r="J47" t="s">
         <v>18</v>
       </c>
@@ -3374,8 +3499,12 @@
       <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="H48"/>
-      <c r="I48"/>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
       <c r="J48" t="s">
         <v>18</v>
       </c>
@@ -3417,8 +3546,12 @@
       <c r="G49" t="s">
         <v>16</v>
       </c>
-      <c r="H49"/>
-      <c r="I49"/>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
       <c r="J49" t="s">
         <v>18</v>
       </c>
@@ -3460,8 +3593,12 @@
       <c r="G50" t="s">
         <v>18</v>
       </c>
-      <c r="H50"/>
-      <c r="I50"/>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
       <c r="J50" t="s">
         <v>18</v>
       </c>
@@ -3503,8 +3640,12 @@
       <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="H51"/>
-      <c r="I51"/>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
       <c r="J51" t="s">
         <v>18</v>
       </c>
@@ -3520,7 +3661,7 @@
       <c r="N51">
         <v>12</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="O51" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3546,8 +3687,12 @@
       <c r="G52" t="s">
         <v>16</v>
       </c>
-      <c r="H52"/>
-      <c r="I52"/>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
       <c r="J52" t="s">
         <v>18</v>
       </c>
@@ -3589,8 +3734,12 @@
       <c r="G53" t="s">
         <v>16</v>
       </c>
-      <c r="H53"/>
-      <c r="I53"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
       <c r="J53" t="s">
         <v>18</v>
       </c>
@@ -3632,8 +3781,12 @@
       <c r="G54" t="s">
         <v>16</v>
       </c>
-      <c r="H54"/>
-      <c r="I54"/>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>19</v>
+      </c>
       <c r="J54" t="s">
         <v>18</v>
       </c>
@@ -3675,8 +3828,12 @@
       <c r="G55" t="s">
         <v>16</v>
       </c>
-      <c r="H55"/>
-      <c r="I55"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
       <c r="J55" t="s">
         <v>18</v>
       </c>
@@ -3718,8 +3875,12 @@
       <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="H56"/>
-      <c r="I56"/>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
       <c r="J56" t="s">
         <v>18</v>
       </c>
@@ -3761,8 +3922,12 @@
       <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="H57"/>
-      <c r="I57"/>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
       <c r="J57" t="s">
         <v>18</v>
       </c>
@@ -3804,8 +3969,8 @@
       <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
       <c r="J58" t="s">
         <v>18</v>
       </c>
@@ -3847,8 +4012,12 @@
       <c r="G59" t="s">
         <v>16</v>
       </c>
-      <c r="H59"/>
-      <c r="I59"/>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
       <c r="J59" t="s">
         <v>18</v>
       </c>
@@ -3890,8 +4059,12 @@
       <c r="G60" t="s">
         <v>16</v>
       </c>
-      <c r="H60"/>
-      <c r="I60"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
       <c r="J60" t="s">
         <v>18</v>
       </c>
@@ -3933,8 +4106,12 @@
       <c r="G61" t="s">
         <v>15</v>
       </c>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
       <c r="J61" t="s">
         <v>18</v>
       </c>
@@ -3976,8 +4153,12 @@
       <c r="G62" t="s">
         <v>16</v>
       </c>
-      <c r="H62"/>
-      <c r="I62"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
       <c r="J62" t="s">
         <v>18</v>
       </c>
@@ -4019,8 +4200,12 @@
       <c r="G63" t="s">
         <v>18</v>
       </c>
-      <c r="H63"/>
-      <c r="I63"/>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
       <c r="J63" t="s">
         <v>18</v>
       </c>
@@ -4062,8 +4247,8 @@
       <c r="G64" t="s">
         <v>15</v>
       </c>
-      <c r="H64"/>
-      <c r="I64"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" t="s">
         <v>18</v>
       </c>
@@ -4105,8 +4290,8 @@
       <c r="G65" t="s">
         <v>16</v>
       </c>
-      <c r="H65"/>
-      <c r="I65"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
       <c r="J65" t="s">
         <v>18</v>
       </c>
@@ -4148,8 +4333,12 @@
       <c r="G66" t="s">
         <v>16</v>
       </c>
-      <c r="H66"/>
-      <c r="I66"/>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
       <c r="J66" t="s">
         <v>18</v>
       </c>
@@ -4191,8 +4380,12 @@
       <c r="G67" t="s">
         <v>16</v>
       </c>
-      <c r="H67"/>
-      <c r="I67"/>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
       <c r="J67" t="s">
         <v>18</v>
       </c>
@@ -4234,8 +4427,12 @@
       <c r="G68" t="s">
         <v>15</v>
       </c>
-      <c r="H68"/>
-      <c r="I68"/>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
       <c r="J68" t="s">
         <v>18</v>
       </c>
@@ -4277,8 +4474,12 @@
       <c r="G69" t="s">
         <v>15</v>
       </c>
-      <c r="H69"/>
-      <c r="I69"/>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
       <c r="J69" t="s">
         <v>18</v>
       </c>
@@ -4320,8 +4521,12 @@
       <c r="G70" t="s">
         <v>15</v>
       </c>
-      <c r="H70"/>
-      <c r="I70"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
       <c r="J70" t="s">
         <v>18</v>
       </c>
@@ -4363,8 +4568,12 @@
       <c r="G71" t="s">
         <v>15</v>
       </c>
-      <c r="H71"/>
-      <c r="I71"/>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
       <c r="J71" t="s">
         <v>18</v>
       </c>
@@ -4406,8 +4615,12 @@
       <c r="G72" t="s">
         <v>16</v>
       </c>
-      <c r="H72"/>
-      <c r="I72"/>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>19</v>
+      </c>
       <c r="J72" t="s">
         <v>18</v>
       </c>
@@ -4449,8 +4662,12 @@
       <c r="G73" t="s">
         <v>16</v>
       </c>
-      <c r="H73"/>
-      <c r="I73"/>
+      <c r="H73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s">
+        <v>19</v>
+      </c>
       <c r="J73" t="s">
         <v>18</v>
       </c>
@@ -4492,8 +4709,12 @@
       <c r="G74" t="s">
         <v>15</v>
       </c>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
       <c r="J74" t="s">
         <v>18</v>
       </c>
@@ -4535,8 +4756,12 @@
       <c r="G75" t="s">
         <v>16</v>
       </c>
-      <c r="H75"/>
-      <c r="I75"/>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>19</v>
+      </c>
       <c r="J75" t="s">
         <v>18</v>
       </c>
@@ -4578,8 +4803,12 @@
       <c r="G76" t="s">
         <v>16</v>
       </c>
-      <c r="H76"/>
-      <c r="I76"/>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>19</v>
+      </c>
       <c r="J76" t="s">
         <v>18</v>
       </c>
@@ -4621,8 +4850,12 @@
       <c r="G77" t="s">
         <v>15</v>
       </c>
-      <c r="H77"/>
-      <c r="I77"/>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
       <c r="J77" t="s">
         <v>18</v>
       </c>
@@ -4638,7 +4871,7 @@
       <c r="N77">
         <v>10</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="O77" s="3" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Vika/R_calc_Touchtred_D/Data/TouchTrEd_D_2023.xlsx
+++ b/Vika/R_calc_Touchtred_D/Data/TouchTrEd_D_2023.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="19">
   <si>
     <t>Date_Start</t>
   </si>
@@ -64,19 +64,13 @@
     <t>Reciprocal_threads</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>e</t>
   </si>
   <si>
-    <t>e</t>
+    <t>NA</t>
   </si>
   <si>
     <t>present</t>
@@ -91,12 +85,18 @@
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="180" formatCode="dd,mm,yyyy\ h:mm"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,141 +566,147 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1242,9 +1248,9 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1329,13 +1335,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1376,13 +1382,13 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1423,13 +1429,13 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1470,13 +1476,13 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1517,13 +1523,13 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1564,13 +1570,13 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1611,13 +1617,13 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1658,13 +1664,13 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9">
         <v>16</v>
@@ -1705,13 +1711,13 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10">
         <v>33</v>
@@ -1752,13 +1758,13 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1799,13 +1805,13 @@
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1846,13 +1852,13 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1893,13 +1899,13 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14">
         <v>18</v>
@@ -1940,13 +1946,13 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15">
         <v>16</v>
@@ -1987,13 +1993,13 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16">
         <v>11</v>
@@ -2034,13 +2040,13 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17">
         <v>24</v>
@@ -2054,8 +2060,8 @@
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>20</v>
+      <c r="O17" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2081,13 +2087,13 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2127,10 +2133,14 @@
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2144,8 +2154,8 @@
       <c r="N19">
         <v>5</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>20</v>
+      <c r="O19" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2170,10 +2180,14 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2213,10 +2227,14 @@
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21">
         <v>22</v>
@@ -2256,10 +2274,14 @@
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -2299,10 +2321,14 @@
       <c r="G23" t="s">
         <v>16</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23">
         <v>13</v>
@@ -2342,10 +2368,14 @@
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -2385,10 +2415,14 @@
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25">
         <v>16</v>
@@ -2423,30 +2457,34 @@
         <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26"/>
-      <c r="I26"/>
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2471,10 +2509,14 @@
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2514,10 +2556,14 @@
       <c r="G28" t="s">
         <v>16</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28">
         <v>13</v>
@@ -2531,8 +2577,8 @@
       <c r="N28">
         <v>10</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>20</v>
+      <c r="O28" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2557,10 +2603,14 @@
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H29"/>
-      <c r="I29"/>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -2600,10 +2650,14 @@
       <c r="G30" t="s">
         <v>16</v>
       </c>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2643,10 +2697,14 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2686,10 +2744,14 @@
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -2729,10 +2791,14 @@
       <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33">
         <v>24</v>
@@ -2772,10 +2838,14 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -2815,10 +2885,14 @@
       <c r="G35" t="s">
         <v>16</v>
       </c>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K35">
         <v>29</v>
@@ -2858,10 +2932,14 @@
       <c r="G36" t="s">
         <v>16</v>
       </c>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36">
         <v>30</v>
@@ -2901,10 +2979,14 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="H37"/>
-      <c r="I37"/>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37">
         <v>12</v>
@@ -2944,10 +3026,14 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38"/>
-      <c r="I38"/>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2987,10 +3073,14 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K39">
         <v>15</v>
@@ -3030,10 +3120,14 @@
       <c r="G40" t="s">
         <v>16</v>
       </c>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3073,10 +3167,14 @@
       <c r="G41" t="s">
         <v>16</v>
       </c>
-      <c r="H41"/>
-      <c r="I41"/>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41">
         <v>29</v>
@@ -3116,10 +3214,14 @@
       <c r="G42" t="s">
         <v>16</v>
       </c>
-      <c r="H42"/>
-      <c r="I42"/>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -3133,8 +3235,8 @@
       <c r="N42">
         <v>10</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>20</v>
+      <c r="O42" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3159,10 +3261,14 @@
       <c r="G43" t="s">
         <v>16</v>
       </c>
-      <c r="H43"/>
-      <c r="I43"/>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -3202,10 +3308,14 @@
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44"/>
-      <c r="I44"/>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -3245,10 +3355,14 @@
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45"/>
-      <c r="I45"/>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3288,10 +3402,14 @@
       <c r="G46" t="s">
         <v>16</v>
       </c>
-      <c r="H46"/>
-      <c r="I46"/>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -3331,10 +3449,14 @@
       <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="H47"/>
-      <c r="I47"/>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K47">
         <v>28</v>
@@ -3374,10 +3496,14 @@
       <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="H48"/>
-      <c r="I48"/>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -3417,10 +3543,14 @@
       <c r="G49" t="s">
         <v>16</v>
       </c>
-      <c r="H49"/>
-      <c r="I49"/>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3455,30 +3585,34 @@
         <v>178</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50"/>
-      <c r="I50"/>
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3503,10 +3637,14 @@
       <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="H51"/>
-      <c r="I51"/>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3520,8 +3658,8 @@
       <c r="N51">
         <v>12</v>
       </c>
-      <c r="O51" s="2" t="s">
-        <v>20</v>
+      <c r="O51" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3546,10 +3684,14 @@
       <c r="G52" t="s">
         <v>16</v>
       </c>
-      <c r="H52"/>
-      <c r="I52"/>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K52">
         <v>32</v>
@@ -3589,10 +3731,14 @@
       <c r="G53" t="s">
         <v>16</v>
       </c>
-      <c r="H53"/>
-      <c r="I53"/>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3632,10 +3778,14 @@
       <c r="G54" t="s">
         <v>16</v>
       </c>
-      <c r="H54"/>
-      <c r="I54"/>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -3675,10 +3825,14 @@
       <c r="G55" t="s">
         <v>16</v>
       </c>
-      <c r="H55"/>
-      <c r="I55"/>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -3718,10 +3872,14 @@
       <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="H56"/>
-      <c r="I56"/>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -3761,10 +3919,14 @@
       <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="H57"/>
-      <c r="I57"/>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -3804,10 +3966,14 @@
       <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K58">
         <v>5</v>
@@ -3847,10 +4013,14 @@
       <c r="G59" t="s">
         <v>16</v>
       </c>
-      <c r="H59"/>
-      <c r="I59"/>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -3890,10 +4060,14 @@
       <c r="G60" t="s">
         <v>16</v>
       </c>
-      <c r="H60"/>
-      <c r="I60"/>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K60">
         <v>7</v>
@@ -3933,10 +4107,14 @@
       <c r="G61" t="s">
         <v>15</v>
       </c>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -3976,10 +4154,14 @@
       <c r="G62" t="s">
         <v>16</v>
       </c>
-      <c r="H62"/>
-      <c r="I62"/>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K62">
         <v>14</v>
@@ -4014,30 +4196,34 @@
         <v>204</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63"/>
-      <c r="I63"/>
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4062,10 +4248,14 @@
       <c r="G64" t="s">
         <v>15</v>
       </c>
-      <c r="H64"/>
-      <c r="I64"/>
+      <c r="H64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K64">
         <v>11</v>
@@ -4105,10 +4295,14 @@
       <c r="G65" t="s">
         <v>16</v>
       </c>
-      <c r="H65"/>
-      <c r="I65"/>
+      <c r="H65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -4148,10 +4342,14 @@
       <c r="G66" t="s">
         <v>16</v>
       </c>
-      <c r="H66"/>
-      <c r="I66"/>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66">
         <v>19</v>
@@ -4191,10 +4389,14 @@
       <c r="G67" t="s">
         <v>16</v>
       </c>
-      <c r="H67"/>
-      <c r="I67"/>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -4234,10 +4436,14 @@
       <c r="G68" t="s">
         <v>15</v>
       </c>
-      <c r="H68"/>
-      <c r="I68"/>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
       <c r="J68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K68">
         <v>16</v>
@@ -4277,10 +4483,14 @@
       <c r="G69" t="s">
         <v>15</v>
       </c>
-      <c r="H69"/>
-      <c r="I69"/>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
       <c r="J69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69">
         <v>4</v>
@@ -4320,10 +4530,14 @@
       <c r="G70" t="s">
         <v>15</v>
       </c>
-      <c r="H70"/>
-      <c r="I70"/>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
       <c r="J70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4363,10 +4577,14 @@
       <c r="G71" t="s">
         <v>15</v>
       </c>
-      <c r="H71"/>
-      <c r="I71"/>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71">
         <v>10</v>
@@ -4406,10 +4624,14 @@
       <c r="G72" t="s">
         <v>16</v>
       </c>
-      <c r="H72"/>
-      <c r="I72"/>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K72">
         <v>13</v>
@@ -4449,10 +4671,14 @@
       <c r="G73" t="s">
         <v>16</v>
       </c>
-      <c r="H73"/>
-      <c r="I73"/>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -4492,10 +4718,14 @@
       <c r="G74" t="s">
         <v>15</v>
       </c>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
       <c r="J74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4535,10 +4765,14 @@
       <c r="G75" t="s">
         <v>16</v>
       </c>
-      <c r="H75"/>
-      <c r="I75"/>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
       <c r="J75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K75">
         <v>8</v>
@@ -4578,10 +4812,14 @@
       <c r="G76" t="s">
         <v>16</v>
       </c>
-      <c r="H76"/>
-      <c r="I76"/>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
       <c r="J76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K76">
         <v>24</v>
@@ -4621,10 +4859,14 @@
       <c r="G77" t="s">
         <v>15</v>
       </c>
-      <c r="H77"/>
-      <c r="I77"/>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
       <c r="J77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -4638,8 +4880,8 @@
       <c r="N77">
         <v>10</v>
       </c>
-      <c r="O77" s="2" t="s">
-        <v>20</v>
+      <c r="O77" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Vika/R_calc_Touchtred_D/Data/TouchTrEd_D_2023.xlsx
+++ b/Vika/R_calc_Touchtred_D/Data/TouchTrEd_D_2023.xlsx
@@ -10,19 +10,22 @@
     <sheet name="Эксперимент TouchTrEd-D" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Эксперимент TouchTrEd-D'!$F$1:$O$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Эксперимент TouchTrEd-D'!$A$1:$P$103</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="25">
   <si>
     <t>Date_Start</t>
   </si>
   <si>
     <t>Date_Finish</t>
+  </si>
+  <si>
+    <t>Experiment_Type</t>
   </si>
   <si>
     <t>Plate</t>
@@ -64,6 +67,9 @@
     <t>Reciprocal_threads</t>
   </si>
   <si>
+    <t>Field</t>
+  </si>
+  <si>
     <t>t</t>
   </si>
   <si>
@@ -74,6 +80,18 @@
   </si>
   <si>
     <t>present</t>
+  </si>
+  <si>
+    <t>21,10,2023</t>
+  </si>
+  <si>
+    <t>Aquaria</t>
+  </si>
+  <si>
+    <t>27,10,2023</t>
+  </si>
+  <si>
+    <t>10,11,2023</t>
   </si>
 </sst>
 </file>
@@ -703,13 +721,13 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,28 +1262,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O77"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.5555555555556"/>
-    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="10" width="12.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="12.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="18.2222222222222" customWidth="1"/>
+    <col min="2" max="3" width="16.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="22.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="11" width="12.7777777777778" customWidth="1"/>
+    <col min="15" max="15" width="12.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="18.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1311,3581 +1329,5009 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B2" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C2">
-        <v>18</v>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
         <v>81</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>12</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B3" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C3">
-        <v>18</v>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
         <v>83</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>21</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B4" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C4">
-        <v>18</v>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
         <v>85</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>86</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>9</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>34</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B5" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C5">
-        <v>18</v>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>87</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>88</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>34</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>13</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B6" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C6">
-        <v>19</v>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
         <v>89</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>90</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B7" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C7">
-        <v>19</v>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
         <v>91</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="K7">
-        <v>7</v>
+      <c r="K7" t="s">
+        <v>19</v>
       </c>
       <c r="L7">
         <v>7</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N7">
+        <v>17</v>
+      </c>
+      <c r="O7">
         <v>9</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B8" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C8">
-        <v>19</v>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
         <v>93</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>94</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>9</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>9</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B9" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C9">
-        <v>19</v>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
         <v>95</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>96</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
       </c>
       <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9">
         <v>32</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B10" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C10">
-        <v>17</v>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
         <v>97</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>98</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10">
         <v>33</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>13</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>8</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B11" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C11">
-        <v>17</v>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
         <v>99</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11">
         <v>8</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>20</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B12" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C12">
-        <v>17</v>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
         <v>101</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>102</v>
       </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
         <v>7</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B13" s="1">
         <v>45148.625</v>
       </c>
-      <c r="C13">
-        <v>17</v>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
         <v>103</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>104</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13">
         <v>5</v>
       </c>
-      <c r="L13">
-        <v>17</v>
-      </c>
       <c r="M13">
+        <v>17</v>
+      </c>
+      <c r="N13">
         <v>10</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>11</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B14" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>105</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>106</v>
       </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>6</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B15" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>107</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>108</v>
       </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
-      <c r="K15">
-        <v>16</v>
+      <c r="K15" t="s">
+        <v>19</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>29</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>11</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B16" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>109</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>110</v>
       </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16">
         <v>11</v>
-      </c>
-      <c r="L16">
-        <v>22</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16">
+        <v>22</v>
+      </c>
+      <c r="O16">
         <v>4</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B17" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>111</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>112</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17">
         <v>24</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>12</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B18" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>113</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>114</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>23</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="N18">
-        <v>19</v>
-      </c>
       <c r="O18">
+        <v>19</v>
+      </c>
+      <c r="P18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B19" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>115</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>116</v>
       </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19">
         <v>10</v>
       </c>
-      <c r="L19">
-        <v>19</v>
-      </c>
       <c r="M19">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>5</v>
       </c>
-      <c r="O19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B20" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>117</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>118</v>
       </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20">
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>14</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>4</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B21" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>119</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>120</v>
       </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21">
         <v>22</v>
       </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
       <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
         <v>7</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B22" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>121</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>122</v>
       </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22">
         <v>9</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>12</v>
-      </c>
-      <c r="M22">
-        <v>5</v>
       </c>
       <c r="N22">
         <v>5</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B23" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>123</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>124</v>
       </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23">
         <v>13</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>3</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>13</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B24" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>125</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>126</v>
       </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24">
         <v>8</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>6</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>14</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>27</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B25" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>127</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>128</v>
       </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
       </c>
-      <c r="K25">
-        <v>16</v>
+      <c r="K25" t="s">
+        <v>19</v>
       </c>
       <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
         <v>12</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>2</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B26" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>129</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>130</v>
       </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B27" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>131</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>132</v>
       </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
       </c>
-      <c r="K27">
-        <v>0</v>
+      <c r="K27" t="s">
+        <v>19</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>13</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>8</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>28</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B28" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>133</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>134</v>
       </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28">
         <v>13</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>31</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>10</v>
       </c>
-      <c r="O28" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B29" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>135</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>136</v>
       </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29">
         <v>9</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>14</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>15</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>6</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B30" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
         <v>11</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>137</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>138</v>
       </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30">
         <v>2</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
       <c r="M30">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B31" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>139</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>140</v>
       </c>
-      <c r="F31" t="s">
-        <v>16</v>
-      </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>5</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>35</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B32" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
         <v>11</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>141</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>142</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32">
         <v>15</v>
       </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32">
-        <v>8</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
-      <c r="N32">
-        <v>15</v>
-      </c>
-      <c r="O32">
+      <c r="P32">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B33" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>143</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>144</v>
       </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33">
         <v>24</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
       <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>22</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
       <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B34" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>145</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>146</v>
       </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34">
         <v>4</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>9</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>11</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B35" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>147</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>148</v>
       </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35">
         <v>29</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>12</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B36" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
         <v>9</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>149</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>150</v>
       </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36">
         <v>30</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
       <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>13</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B37" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>151</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>152</v>
       </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
         <v>17</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37">
         <v>12</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
       <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <v>22</v>
       </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B38" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
         <v>12</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>153</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>154</v>
       </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
       </c>
-      <c r="K38">
-        <v>0</v>
+      <c r="K38" t="s">
+        <v>19</v>
       </c>
       <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>13</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>12</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>13</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B39" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
         <v>12</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>155</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>156</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39">
         <v>15</v>
       </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39">
-        <v>15</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
       <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>26</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>5</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B40" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
         <v>12</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>157</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>158</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
         <v>15</v>
       </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>25</v>
-      </c>
-      <c r="M40">
-        <v>5</v>
-      </c>
-      <c r="N40">
-        <v>15</v>
-      </c>
-      <c r="O40">
+      <c r="P40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B41" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
         <v>12</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>159</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>160</v>
       </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41">
         <v>29</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>9</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>8</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>6</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B42" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
         <v>10</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>161</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>162</v>
       </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42">
         <v>3</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>10</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>12</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>10</v>
       </c>
-      <c r="O42" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B43" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>163</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>164</v>
       </c>
-      <c r="F43" t="s">
-        <v>16</v>
-      </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43">
         <v>10</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
       <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
         <v>5</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>8</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B44" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44">
         <v>10</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>165</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>166</v>
       </c>
-      <c r="F44" t="s">
-        <v>16</v>
-      </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44">
         <v>2</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>8</v>
       </c>
-      <c r="M44">
-        <v>16</v>
-      </c>
       <c r="N44">
+        <v>16</v>
+      </c>
+      <c r="O44">
         <v>26</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B45" s="1">
         <v>45149.4375</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
         <v>10</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>167</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>168</v>
       </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>19</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
         <v>2</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>31</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B46" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46">
         <v>7</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>169</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>170</v>
       </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46">
         <v>5</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>4</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>37</v>
       </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B47" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47">
         <v>7</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>171</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>172</v>
       </c>
-      <c r="F47" t="s">
-        <v>16</v>
-      </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
         <v>17</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47">
         <v>28</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>2</v>
       </c>
-      <c r="M47">
-        <v>19</v>
-      </c>
       <c r="N47">
+        <v>19</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B48" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48">
         <v>7</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>173</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>174</v>
       </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48">
         <v>3</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>14</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>6</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>7</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B49" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
         <v>7</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>175</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>176</v>
       </c>
-      <c r="F49" t="s">
-        <v>15</v>
-      </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
       </c>
       <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>33</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>5</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>9</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B50" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
         <v>8</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>177</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>178</v>
       </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B51" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51">
         <v>8</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>179</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>180</v>
       </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
       </c>
-      <c r="K51">
-        <v>0</v>
+      <c r="K51" t="s">
+        <v>19</v>
       </c>
       <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>11</v>
       </c>
-      <c r="M51">
-        <v>18</v>
-      </c>
       <c r="N51">
+        <v>18</v>
+      </c>
+      <c r="O51">
         <v>12</v>
       </c>
-      <c r="O51" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B52" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
         <v>8</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>181</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>182</v>
       </c>
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52">
+        <v>18</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52">
         <v>32</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>12</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>4</v>
       </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
       <c r="O52">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B53" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
         <v>8</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>183</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>184</v>
       </c>
-      <c r="F53" t="s">
-        <v>16</v>
-      </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
       </c>
       <c r="L53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>6</v>
       </c>
       <c r="N53">
+        <v>6</v>
+      </c>
+      <c r="O53">
         <v>9</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B54" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
         <v>6</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>185</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>186</v>
       </c>
-      <c r="F54" t="s">
-        <v>15</v>
-      </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54">
+        <v>18</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54">
         <v>4</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>29</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>1</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>12</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B55" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55">
         <v>6</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>187</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>188</v>
       </c>
-      <c r="F55" t="s">
-        <v>16</v>
-      </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55">
         <v>2</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>1</v>
       </c>
-      <c r="M55">
-        <v>16</v>
-      </c>
       <c r="N55">
+        <v>16</v>
+      </c>
+      <c r="O55">
         <v>1</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B56" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
         <v>6</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>189</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>190</v>
       </c>
-      <c r="F56" t="s">
-        <v>16</v>
-      </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56">
         <v>7</v>
       </c>
-      <c r="L56">
-        <v>17</v>
-      </c>
       <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56">
         <v>1</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>44</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B57" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
         <v>6</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>191</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>192</v>
       </c>
-      <c r="F57" t="s">
-        <v>15</v>
-      </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57">
         <v>3</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>6</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
       <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
         <v>23</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B58" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>193</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>194</v>
       </c>
-      <c r="F58" t="s">
-        <v>15</v>
-      </c>
       <c r="G58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58">
         <v>5</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>29</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>12</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>13</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B59" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
         <v>5</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>195</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>196</v>
       </c>
-      <c r="F59" t="s">
-        <v>15</v>
-      </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59">
         <v>4</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>5</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>2</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>7</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B60" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>197</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>198</v>
       </c>
-      <c r="F60" t="s">
-        <v>16</v>
-      </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60">
         <v>7</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
       <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
         <v>4</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>6</v>
       </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B61" s="1">
         <v>45151.4791666667</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>199</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>200</v>
       </c>
-      <c r="F61" t="s">
-        <v>16</v>
-      </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61">
         <v>13</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
       <c r="M61">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N61">
+        <v>17</v>
+      </c>
+      <c r="O61">
         <v>24</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B62" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
         <v>15</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>201</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>202</v>
       </c>
-      <c r="F62" t="s">
-        <v>16</v>
-      </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62">
+        <v>18</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62">
         <v>14</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>3</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>4</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>6</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B63" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
         <v>15</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>203</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>204</v>
       </c>
-      <c r="F63" t="s">
-        <v>17</v>
-      </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B64" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64">
         <v>15</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>205</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>206</v>
       </c>
-      <c r="F64" t="s">
-        <v>15</v>
-      </c>
       <c r="G64" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64">
         <v>11</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
       <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <v>6</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>43</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B65" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
         <v>15</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>207</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>208</v>
       </c>
-      <c r="F65" t="s">
-        <v>15</v>
-      </c>
       <c r="G65" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K65">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65">
         <v>2</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>43</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
       <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
         <v>3</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B66" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
         <v>14</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>209</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>210</v>
       </c>
-      <c r="F66" t="s">
-        <v>15</v>
-      </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J66" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66">
+        <v>18</v>
+      </c>
+      <c r="K66" t="s">
         <v>19</v>
       </c>
       <c r="L66">
+        <v>19</v>
+      </c>
+      <c r="M66">
         <v>30</v>
       </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
       <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
         <v>7</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B67" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67">
         <v>14</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>211</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>212</v>
       </c>
-      <c r="F67" t="s">
-        <v>16</v>
-      </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67">
+        <v>18</v>
+      </c>
+      <c r="K67" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67">
         <v>10</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>2</v>
       </c>
-      <c r="M67">
-        <v>16</v>
-      </c>
       <c r="N67">
+        <v>16</v>
+      </c>
+      <c r="O67">
         <v>12</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B68" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68">
         <v>14</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>213</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>214</v>
       </c>
-      <c r="F68" t="s">
-        <v>16</v>
-      </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
       </c>
-      <c r="K68">
-        <v>16</v>
+      <c r="K68" t="s">
+        <v>19</v>
       </c>
       <c r="L68">
+        <v>16</v>
+      </c>
+      <c r="M68">
         <v>1</v>
       </c>
-      <c r="M68">
-        <v>18</v>
-      </c>
       <c r="N68">
+        <v>18</v>
+      </c>
+      <c r="O68">
         <v>6</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B69" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69">
         <v>14</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>215</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>216</v>
       </c>
-      <c r="F69" t="s">
-        <v>15</v>
-      </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69">
         <v>4</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
       <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>12</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>9</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B70" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
         <v>217</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>218</v>
       </c>
-      <c r="F70" t="s">
-        <v>16</v>
-      </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
         <v>17</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70">
         <v>1</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>21</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>9</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>20</v>
       </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B71" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
         <v>219</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>220</v>
       </c>
-      <c r="F71" t="s">
-        <v>15</v>
-      </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71">
         <v>10</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>8</v>
       </c>
-      <c r="M71">
-        <v>17</v>
-      </c>
       <c r="N71">
+        <v>17</v>
+      </c>
+      <c r="O71">
         <v>14</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B72" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72">
         <v>221</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>222</v>
       </c>
-      <c r="F72" t="s">
-        <v>15</v>
-      </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
-      </c>
-      <c r="K72">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72">
         <v>13</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>20</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>8</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>9</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B73" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73">
         <v>223</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>224</v>
       </c>
-      <c r="F73" t="s">
-        <v>16</v>
-      </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73">
         <v>9</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>4</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>1</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>4</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B74" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
         <v>13</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>225</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>226</v>
       </c>
-      <c r="F74" t="s">
-        <v>15</v>
-      </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74">
         <v>1</v>
       </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B75" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
         <v>13</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>227</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>228</v>
       </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75">
         <v>8</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>10</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
       <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
         <v>3</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B76" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76">
         <v>13</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>229</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>230</v>
       </c>
-      <c r="F76" t="s">
-        <v>16</v>
-      </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76">
+        <v>18</v>
+      </c>
+      <c r="K76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76">
         <v>24</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
       <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
         <v>10</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>7</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>45145.6666666667</v>
       </c>
       <c r="B77" s="1">
         <v>45151.6666666667</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77">
         <v>13</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>231</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>232</v>
       </c>
-      <c r="F77" t="s">
-        <v>16</v>
-      </c>
       <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>14</v>
+      </c>
+      <c r="N77">
+        <v>7</v>
+      </c>
+      <c r="O77">
+        <v>10</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="2:16">
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78">
+        <v>233</v>
+      </c>
+      <c r="F78">
+        <v>234</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78">
+        <v>33</v>
+      </c>
+      <c r="M78">
+        <v>10</v>
+      </c>
+      <c r="N78">
+        <v>9</v>
+      </c>
+      <c r="O78">
+        <v>11</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="2:16">
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>235</v>
+      </c>
+      <c r="F79">
+        <v>236</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79">
+        <v>34</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>27</v>
+      </c>
+      <c r="O79">
+        <v>40</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="2:16">
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>237</v>
+      </c>
+      <c r="F80">
+        <v>238</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <v>6</v>
+      </c>
+      <c r="N80">
+        <v>31</v>
+      </c>
+      <c r="O80">
+        <v>12</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="2:16">
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>239</v>
+      </c>
+      <c r="F81">
+        <v>240</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81">
         <v>15</v>
       </c>
-      <c r="H77" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="M81">
+        <v>8</v>
+      </c>
+      <c r="N81">
+        <v>13</v>
+      </c>
+      <c r="O81">
+        <v>8</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="2:16">
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82">
+        <v>241</v>
+      </c>
+      <c r="F82">
+        <v>242</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82">
+        <v>24</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>29</v>
+      </c>
+      <c r="O82">
+        <v>3</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="2:16">
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83">
+        <v>243</v>
+      </c>
+      <c r="F83">
+        <v>244</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83">
+        <v>20</v>
+      </c>
+      <c r="M83">
+        <v>13</v>
+      </c>
+      <c r="N83">
+        <v>43</v>
+      </c>
+      <c r="O83">
+        <v>3</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="2:16">
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84">
+        <v>245</v>
+      </c>
+      <c r="F84">
+        <v>246</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84">
+        <v>38</v>
+      </c>
+      <c r="M84">
+        <v>13</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84">
+        <v>9</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="2:16">
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85">
+        <v>247</v>
+      </c>
+      <c r="F85">
+        <v>248</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85">
+        <v>26</v>
+      </c>
+      <c r="M85">
+        <v>6</v>
+      </c>
+      <c r="N85">
+        <v>42</v>
+      </c>
+      <c r="O85">
+        <v>34</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="2:16">
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86">
+        <v>249</v>
+      </c>
+      <c r="F86">
+        <v>250</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>19</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="2:16">
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87">
+        <v>251</v>
+      </c>
+      <c r="F87">
+        <v>252</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87">
+        <v>37</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
+        <v>13</v>
+      </c>
+      <c r="O87">
+        <v>10</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="1:16">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88">
+        <v>253</v>
+      </c>
+      <c r="F88">
+        <v>254</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>6</v>
+      </c>
+      <c r="N88">
+        <v>17</v>
+      </c>
+      <c r="O88">
         <v>15</v>
       </c>
-      <c r="J77" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77">
+      <c r="P88" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="1:16">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89">
+        <v>255</v>
+      </c>
+      <c r="F89">
+        <v>256</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89">
+        <v>39</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>9</v>
+      </c>
+      <c r="O89">
+        <v>10</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" spans="1:16">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90">
+        <v>257</v>
+      </c>
+      <c r="F90">
+        <v>258</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90">
+        <v>6</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>36</v>
+      </c>
+      <c r="O90">
+        <v>3</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="1:16">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91">
+        <v>259</v>
+      </c>
+      <c r="F91">
+        <v>260</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>33</v>
+      </c>
+      <c r="N91">
+        <v>30</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="1:16">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92">
+        <v>261</v>
+      </c>
+      <c r="F92">
+        <v>262</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92">
+        <v>17</v>
+      </c>
+      <c r="M92">
+        <v>23</v>
+      </c>
+      <c r="N92">
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:16">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93">
+        <v>263</v>
+      </c>
+      <c r="F93">
+        <v>264</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93">
+        <v>9</v>
+      </c>
+      <c r="M93">
         <v>5</v>
       </c>
-      <c r="L77">
-        <v>14</v>
-      </c>
-      <c r="M77">
+      <c r="N93">
+        <v>15</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" hidden="1" spans="1:16">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94">
+        <v>265</v>
+      </c>
+      <c r="F94">
+        <v>266</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94">
         <v>7</v>
       </c>
-      <c r="N77">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94">
+        <v>22</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:16">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95">
+        <v>267</v>
+      </c>
+      <c r="F95">
+        <v>268</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95">
+        <v>42</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="1:16">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96">
+        <v>269</v>
+      </c>
+      <c r="F96">
+        <v>270</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96">
+        <v>36</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96">
+        <v>6</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:16">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97">
+        <v>271</v>
+      </c>
+      <c r="F97">
+        <v>272</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97">
+        <v>22</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>18</v>
+      </c>
+      <c r="O97">
+        <v>6</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:16">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98">
+        <v>273</v>
+      </c>
+      <c r="F98">
+        <v>274</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>21</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>18</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="1:16">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99">
+        <v>275</v>
+      </c>
+      <c r="F99">
+        <v>276</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>15</v>
+      </c>
+      <c r="O99">
+        <v>11</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="1:16">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100">
+        <v>277</v>
+      </c>
+      <c r="F100">
+        <v>278</v>
+      </c>
+      <c r="G100" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100">
+        <v>7</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>7</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" spans="1:16">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101">
+        <v>279</v>
+      </c>
+      <c r="F101">
+        <v>280</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101">
         <v>10</v>
       </c>
-      <c r="O77" s="4" t="s">
-        <v>18</v>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" spans="1:16">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102">
+        <v>281</v>
+      </c>
+      <c r="F102">
+        <v>282</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102">
+        <v>69</v>
+      </c>
+      <c r="M102">
+        <v>12</v>
+      </c>
+      <c r="N102">
+        <v>7</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="1:16">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103">
+        <v>283</v>
+      </c>
+      <c r="F103">
+        <v>284</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103">
+        <v>26</v>
+      </c>
+      <c r="M103">
+        <v>18</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103">
+        <v>6</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:O77">
+  <autoFilter ref="A1:P103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Field"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
